--- a/Centrality.xlsx
+++ b/Centrality.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03989779814712253</v>
+        <v>0.03989779814712254</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004922183063319035</v>
+        <v>0.000571386285672</v>
       </c>
     </row>
     <row r="3">
@@ -480,17 +480,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15/3108</t>
+          <t>30/6609</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008158637848642927</v>
+        <v>0.1325627632623233</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.02811509466890588</v>
       </c>
     </row>
     <row r="4">
@@ -499,17 +499,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>99/4535</t>
+          <t>76/440</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04584868213991826</v>
+        <v>0.232157732145906</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04977776778955947</v>
+        <v>0.07399462729457661</v>
       </c>
     </row>
     <row r="5">
@@ -518,17 +518,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>d/AnwitamanDatta</t>
+          <t>15/3108</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08675421699259799</v>
+        <v>0.008158637848642928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001653906430154279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -537,17 +537,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>67/2933</t>
+          <t>s/SeahHockSoon</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0322282023090646</v>
+        <v>0.07457978468109011</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001566469961478567</v>
+        <v>0.1189611858733984</v>
       </c>
     </row>
     <row r="7">
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>73/1708</t>
+          <t>99/4535</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01263891351689663</v>
+        <v>0.04584868213991828</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02383388428999444</v>
+        <v>0.05778398218927886</v>
       </c>
     </row>
     <row r="8">
@@ -575,17 +575,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>42/6178-1</t>
+          <t>80/7421</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1506086727852355</v>
+        <v>0.0676246099594727</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04853722566717403</v>
+        <v>0.02562916176812579</v>
       </c>
     </row>
     <row r="9">
@@ -594,17 +594,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>83/6096</t>
+          <t>73/1708</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224538211579236</v>
+        <v>0.01263891351689663</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0604695344733303</v>
+        <v>0.02766730623873482</v>
       </c>
     </row>
     <row r="10">
@@ -613,17 +613,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>83/3179</t>
+          <t>84/2408</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1005755154912736</v>
+        <v>0.02654042487401868</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0366656609341389</v>
+        <v>0.009923804319408714</v>
       </c>
     </row>
     <row r="11">
@@ -632,17 +632,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29/3808</t>
+          <t>95/7006</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07969767541820662</v>
+        <v>0.07608507937525473</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002406078109266803</v>
+        <v>0.03026123743995005</v>
       </c>
     </row>
     <row r="12">
@@ -651,17 +651,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>80/2106</t>
+          <t>41/8030</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08530513273498035</v>
+        <v>0.0413135057673002</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000321556431711337</v>
+        <v>0.01204037473927712</v>
       </c>
     </row>
     <row r="13">
@@ -670,17 +670,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05/2952</t>
+          <t>10/1993</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.119047619047619</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1712351756173038</v>
+        <v>0.07921525606156599</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01909028587265563</v>
+        <v>0.02891531434053964</v>
       </c>
     </row>
     <row r="14">
@@ -689,17 +689,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>c/ChngEngSiong</t>
+          <t>23/1694</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1541819551617943</v>
+        <v>0.04112037646133407</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02330825029703877</v>
+        <v>0.04879916733983719</v>
       </c>
     </row>
     <row r="15">
@@ -708,17 +708,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>33/3180</t>
+          <t>d/AnwitamanDatta</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1245244293154067</v>
+        <v>0.08675421699259801</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05554984776152708</v>
+        <v>0.001919919352486785</v>
       </c>
     </row>
     <row r="16">
@@ -727,17 +727,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>95/3115</t>
+          <t>l/BuSungLee</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1450327736731915</v>
+        <v>0.3309664323305223</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006339150417564916</v>
+        <v>0.1479710571697782</v>
       </c>
     </row>
     <row r="17">
@@ -746,17 +746,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>63/6663</t>
+          <t>n/WeeKeongNg</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02212652194921017</v>
+        <v>0.1118851014943874</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0009307016247822953</v>
+        <v>0.02483994955007813</v>
       </c>
     </row>
     <row r="18">
@@ -765,17 +765,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>76/440</t>
+          <t>78/5155</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1547619047619048</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232157732145906</v>
+        <v>0.1874793735577051</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06374235965737624</v>
+        <v>0.03752300002470884</v>
       </c>
     </row>
     <row r="19">
@@ -784,17 +784,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>80/7421</t>
+          <t>84/6889-2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06762460995947266</v>
+        <v>0.1627233180856716</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0220781333303734</v>
+        <v>0.03209864314493557</v>
       </c>
     </row>
     <row r="20">
@@ -803,17 +803,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>97/6922</t>
+          <t>67/2933</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05282935260246822</v>
+        <v>0.03222820230906461</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03091901055588103</v>
+        <v>0.001818419675562532</v>
       </c>
     </row>
     <row r="21">
@@ -822,17 +822,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>95/7006</t>
+          <t>b/SSBhowmick</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07608507937525474</v>
+        <v>0.1287744041758418</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02606841538501721</v>
+        <v>0.02057334404557865</v>
       </c>
     </row>
     <row r="22">
@@ -841,17 +841,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>h/YingHe1</t>
+          <t>33/3180</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06805171046998379</v>
+        <v>0.1245244293154067</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01069752464604291</v>
+        <v>0.06448443866023426</v>
       </c>
     </row>
     <row r="23">
@@ -860,17 +860,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>61/3119</t>
+          <t>90/9499</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1073096443341642</v>
+        <v>0.001382601038801925</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001414506319841948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -879,17 +879,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>65/3225</t>
+          <t>00/5179</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08854573397202636</v>
+        <v>0.06830615769928454</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02261862044717697</v>
+        <v>0.03574806122983752</v>
       </c>
     </row>
     <row r="25">
@@ -898,17 +898,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>62/2078</t>
+          <t>42/6178-1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1112083417835325</v>
+        <v>0.1506086727852356</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002036651949327863</v>
+        <v>0.05634391231294329</v>
       </c>
     </row>
     <row r="26">
@@ -917,17 +917,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>07/3111</t>
+          <t>m/ChunyanMiao</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02410701942380302</v>
+        <v>0.3512848412839801</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1365912838755238</v>
       </c>
     </row>
     <row r="27">
@@ -936,17 +936,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16/3792</t>
+          <t>80/5412</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01613753384152501</v>
+        <v>0.1018221364963869</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0001939731715979564</v>
+        <v>0.00953883652106482</v>
       </c>
     </row>
     <row r="28">
@@ -955,17 +955,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>32/228</t>
+          <t>93/4009</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05912892239337999</v>
+        <v>0.01667471184739897</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004520742733531776</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="29">
@@ -974,17 +974,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10/1993</t>
+          <t>03/1554</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07921525606156594</v>
+        <v>0.1981335583288098</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02490897560660945</v>
+        <v>0.01191549801841684</v>
       </c>
     </row>
     <row r="30">
@@ -993,17 +993,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>74/1907</t>
+          <t>35/1096-1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="D30" t="n">
-        <v>0.004498396594413313</v>
+        <v>0.1894662582246708</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.01702525796698399</v>
       </c>
     </row>
     <row r="31">
@@ -1012,17 +1012,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12/9925</t>
+          <t>83/6096</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001824037209432187</v>
+        <v>0.2245382115792361</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.07019540365435542</v>
       </c>
     </row>
     <row r="32">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>30/6609</t>
+          <t>29/3808</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1325627632623232</v>
+        <v>0.07969767541820665</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02421962974490085</v>
+        <v>0.002793069693274752</v>
       </c>
     </row>
     <row r="33">
@@ -1050,17 +1050,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>l/BuSungLee</t>
+          <t>05/2952</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.25</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3309664323305223</v>
+        <v>0.1712351756173038</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127469043224568</v>
+        <v>0.02216075143259325</v>
       </c>
     </row>
     <row r="34">
@@ -1069,17 +1069,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>32/3735</t>
+          <t>62/2078</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="D34" t="n">
-        <v>1.100592852575093e-22</v>
+        <v>0.1112083417835326</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.002364225339779197</v>
       </c>
     </row>
     <row r="35">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>87/4982-1</t>
+          <t>126/4778</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01190893926072245</v>
+        <v>0.1008555875258613</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00251298233225944</v>
+        <v>0.01100844045820033</v>
       </c>
     </row>
     <row r="36">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>59/871-8</t>
+          <t>14/3737</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01248963759320557</v>
+        <v>0.1760080167268817</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.1044890967703506</v>
       </c>
     </row>
     <row r="37">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>a/QianhuiAltheaLiang</t>
+          <t>42/2718</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03620556764466875</v>
+        <v>0.040829028509828</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.00141741249054988</v>
       </c>
     </row>
     <row r="38">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>75/2611-2</t>
+          <t>64/4136</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="D38" t="n">
-        <v>0.009160799819220957</v>
+        <v>0.2203719111205283</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.1157548340028365</v>
       </c>
     </row>
     <row r="39">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>126/4778</t>
+          <t>95/3115</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1008555875258613</v>
+        <v>0.1450327736731915</v>
       </c>
       <c r="E39" t="n">
-        <v>0.009483174611582212</v>
+        <v>0.007358734051159275</v>
       </c>
     </row>
     <row r="40">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>55/4730-1</t>
+          <t>33/885</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02984529624790801</v>
+        <v>0.1752922261721594</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004393061041081693</v>
+        <v>0.03715583402245345</v>
       </c>
     </row>
     <row r="41">
@@ -1202,17 +1202,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14/3737</t>
+          <t>79/8116</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1547619047619048</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1760080167268817</v>
+        <v>0.06375364013976706</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09001169179614542</v>
+        <v>0.02573845812959641</v>
       </c>
     </row>
     <row r="42">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>24/914</t>
+          <t>09/5452</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006974165155763606</v>
+        <v>0.07260542403961709</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.01162643853227263</v>
       </c>
     </row>
     <row r="43">
@@ -1240,17 +1240,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>51/3710-3</t>
+          <t>83/3179</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08432611705632219</v>
+        <v>0.1005755154912736</v>
       </c>
       <c r="E43" t="n">
-        <v>0.04953513861870401</v>
+        <v>0.042562935070399</v>
       </c>
     </row>
     <row r="44">
@@ -1259,17 +1259,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11/9550</t>
+          <t>61/3119</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D44" t="n">
-        <v>1.100592852575093e-22</v>
+        <v>0.1073096443341642</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.001642014329327016</v>
       </c>
     </row>
     <row r="45">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>58/10813</t>
+          <t>51/3710-3</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0136219494015857</v>
+        <v>0.08432611705632222</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.05750232874618787</v>
       </c>
     </row>
     <row r="46">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01/5855</t>
+          <t>s/CZSun</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03670105502555275</v>
+        <v>0.02152976178363014</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0009214232185062875</v>
+        <v>0.007867132867132868</v>
       </c>
     </row>
     <row r="47">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>42/2718</t>
+          <t>23/2460</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D47" t="n">
-        <v>0.04082902850982797</v>
+        <v>0.0803107121314669</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001221024012943571</v>
+        <v>0.002230000099236126</v>
       </c>
     </row>
     <row r="48">
@@ -1335,17 +1335,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>42/2501-1</t>
+          <t>52/910</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06448772532630148</v>
+        <v>0.1151242142349033</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002164279603969238</v>
+        <v>0.01500900369384826</v>
       </c>
     </row>
     <row r="49">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>55/9613</t>
+          <t>80/2106</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06067373644467448</v>
+        <v>0.08530513273498037</v>
       </c>
       <c r="E49" t="n">
-        <v>0.000180996093216403</v>
+        <v>0.0003732752983502234</v>
       </c>
     </row>
     <row r="50">
@@ -1373,17 +1373,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>74/5309</t>
+          <t>q/HiokChaiQuek</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="D50" t="n">
-        <v>1.100592852575093e-22</v>
+        <v>0.1083147420263487</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.02478265299874972</v>
       </c>
     </row>
     <row r="51">
@@ -1392,17 +1392,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>n/WeeKeongNg</t>
+          <t>38/3641</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1118851014943874</v>
+        <v>0.1715503390806018</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02139826979313959</v>
+        <v>0.01431520783095288</v>
       </c>
     </row>
     <row r="52">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>224/9431</t>
+          <t>c/ChngEngSiong</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05703929150274729</v>
+        <v>0.1541819551617943</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0270571297154436</v>
       </c>
     </row>
     <row r="53">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>84/2408</t>
+          <t>97/6922</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02654042487401867</v>
+        <v>0.05282935260246824</v>
       </c>
       <c r="E53" t="n">
-        <v>0.008548819383587024</v>
+        <v>0.03589199826766608</v>
       </c>
     </row>
     <row r="54">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>80/5412</t>
+          <t>65/3225</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1018221364963869</v>
+        <v>0.08854573397202639</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008217190497061861</v>
+        <v>0.02625658037924039</v>
       </c>
     </row>
     <row r="55">
@@ -1468,14 +1468,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>78/6459</t>
+          <t>58/10813</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D55" t="n">
-        <v>0.009160799819220957</v>
+        <v>0.0136219494015857</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>q/HiokChaiQuek</t>
+          <t>63/6663</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1083147420263487</v>
+        <v>0.02212652194921017</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0213489119206097</v>
+        <v>0.001080394893103923</v>
       </c>
     </row>
     <row r="57">
@@ -1506,17 +1506,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>91/665</t>
+          <t>42/2501-1</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01030099406075601</v>
+        <v>0.0644877253263015</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0004171360130912625</v>
+        <v>0.002512380519292962</v>
       </c>
     </row>
     <row r="58">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>s/SeahHockSoon</t>
+          <t>47/2026-7</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1309523809523809</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0745797846810901</v>
+        <v>0.0873354721564053</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1024786119270841</v>
+        <v>0.03046580089537132</v>
       </c>
     </row>
     <row r="59">
@@ -1544,17 +1544,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>73/4788</t>
+          <t>91/665</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D59" t="n">
-        <v>1.100592852575093e-22</v>
+        <v>0.01030099406075601</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.0004842278193926545</v>
       </c>
     </row>
     <row r="60">
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>b/SSBhowmick</t>
+          <t>242/0323</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1287744041758417</v>
+        <v>0.005779242091553343</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01772282047299847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1582,17 +1582,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>41/8030</t>
+          <t>69/8028</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04131350576730018</v>
+        <v>0.07532035847976093</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01037213004648571</v>
+        <v>0.00831631091371351</v>
       </c>
     </row>
     <row r="62">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>78/5155</t>
+          <t>32/228</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1874793735577051</v>
+        <v>0.05912892239338</v>
       </c>
       <c r="E62" t="n">
-        <v>0.03232403014176725</v>
+        <v>0.005247855201162762</v>
       </c>
     </row>
     <row r="63">
@@ -1620,17 +1620,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>s/CZSun</t>
+          <t>h/YingHe1</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02152976178363014</v>
+        <v>0.06805171046998379</v>
       </c>
       <c r="E63" t="n">
-        <v>0.006777108433734939</v>
+        <v>0.01241810553316869</v>
       </c>
     </row>
     <row r="64">
@@ -1639,17 +1639,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>38/3641</t>
+          <t>81/8329</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1715503390806017</v>
+        <v>0.01891107981393177</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01233177542064013</v>
+        <v>0.001742268642473701</v>
       </c>
     </row>
     <row r="65">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>242/0323</t>
+          <t>07/3111</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005779242091553343</v>
+        <v>0.02410701942380303</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -1677,17 +1677,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>00/5179</t>
+          <t>16/3792</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06830615769928451</v>
+        <v>0.01613753384152501</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03079501660160702</v>
+        <v>0.0002251716537430823</v>
       </c>
     </row>
     <row r="67">
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>23/2460</t>
+          <t>74/1907</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08031071213146687</v>
+        <v>0.004498396594413313</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001921024181872085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1715,17 +1715,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>69/8028</t>
+          <t>12/9925</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07532035847976093</v>
+        <v>0.001824037209432187</v>
       </c>
       <c r="E68" t="n">
-        <v>0.007164050967837542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1734,14 +1734,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>95/378</t>
+          <t>a/QianhuiAltheaLiang</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D69" t="n">
-        <v>1.100592852575093e-22</v>
+        <v>0.03620556764466876</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1753,17 +1753,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>52/910</t>
+          <t>224/9431</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1151242142349033</v>
+        <v>0.05703929150274731</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01292944294108616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1772,17 +1772,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>35/1096-1</t>
+          <t>87/4982-1</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.119047619047619</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1894662582246707</v>
+        <v>0.01190893926072245</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01466633668240187</v>
+        <v>0.002917168301783686</v>
       </c>
     </row>
     <row r="72">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>79/8116</t>
+          <t>59/871-8</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06375364013976706</v>
+        <v>0.01248963759320557</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02217228622007401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1810,17 +1810,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>84/6889-2</t>
+          <t>55/4730-1</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1627233180856716</v>
+        <v>0.02984529624790801</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02765124078148063</v>
+        <v>0.005099637292444485</v>
       </c>
     </row>
     <row r="74">
@@ -1829,17 +1829,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>47/2026-7</t>
+          <t>75/2611-2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08733547215640526</v>
+        <v>0.009160799819220959</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02624463571107289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1848,17 +1848,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>09/5452</t>
+          <t>78/6459</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07260542403961709</v>
+        <v>0.009160799819220959</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01001554644647583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1867,17 +1867,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>93/4009</t>
+          <t>24/914</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01667471184739896</v>
+        <v>0.006974165155763607</v>
       </c>
       <c r="E76" t="n">
-        <v>0.02208835341365462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1886,17 +1886,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>m/ChunyanMiao</t>
+          <t>77/7902</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.25</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D77" t="n">
-        <v>0.35128484128398</v>
+        <v>0.02840029735607071</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1176659855072283</v>
+        <v>0.0006757589175171592</v>
       </c>
     </row>
     <row r="78">
@@ -1905,17 +1905,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>23/1694</t>
+          <t>01/5855</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04112037646133406</v>
+        <v>0.03670105502555277</v>
       </c>
       <c r="E78" t="n">
-        <v>0.04203783692528143</v>
+        <v>0.001069624155748558</v>
       </c>
     </row>
     <row r="79">
@@ -1924,17 +1924,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>64/4136</t>
+          <t>55/9613</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2203719111205283</v>
+        <v>0.06067373644467451</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09971651362894951</v>
+        <v>0.0002101073529644958</v>
       </c>
     </row>
     <row r="80">
@@ -1943,131 +1943,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>03/1554</t>
+          <t>70/1211</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1981335583288098</v>
+        <v>0.1237008515212907</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0102645555218892</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>36/9306</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.100592852575093e-22</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>33/885</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.1752922261721594</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.03200773653741471</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>77/7902</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.02840029735607071</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.00058212966990936</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>70/1211</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0.05952380952380952</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.1237008515212907</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.0006829265240791528</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>90/9499</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>0.0119047619047619</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.001382601038801925</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>81/8329</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.01891107981393177</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.001500869975143007</v>
+        <v>0.0007927678531268489</v>
       </c>
     </row>
   </sheetData>
